--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15075" windowHeight="4875"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15075" windowHeight="4875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="纸尿裤" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="181">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,16 +570,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余4*23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绿帮L112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014.10.12-2014.10.20
-2014.10.12-2014.10.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -727,14 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.03.07-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2014.11.01-2014.12.09
 2014.12.10-2015.01.10
 2015.01.11-2015.02.07
@@ -772,10 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.04.09-2015.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好奇银装XL19*4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,6 +768,33 @@
   </si>
   <si>
     <t>2015.04.21-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.03.07-2015.04.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.10.12-2014.10.20
+2014.10.12-2014.10.20
+2015.04.28-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余3*23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.25-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇银装XL*19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.09-2015.04.26
+2015.04.27-2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D63</f>
+        <f>D3+D18+D36+D64</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -1695,7 +1701,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C33">
         <v>24</v>
@@ -1708,13 +1714,16 @@
         <v>1.66</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C34">
         <f>2*2*26</f>
@@ -1726,6 +1735,9 @@
       <c r="E34">
         <f t="shared" si="1"/>
         <v>0.94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1796,7 +1808,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
@@ -1817,7 +1829,7 @@
         <v>1.21</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -1838,16 +1850,13 @@
         <v>1.21</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -1863,14 +1872,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="H45">
-        <f>4*23</f>
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -1895,7 +1903,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47">
         <v>112</v>
@@ -1904,11 +1912,11 @@
         <v>125.3</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E61" si="2">ROUND(D47/C47,2)</f>
+        <f t="shared" ref="E47:E62" si="2">ROUND(D47/C47,2)</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -1916,7 +1924,7 @@
     </row>
     <row r="48" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C48">
         <f>30*4</f>
@@ -1931,18 +1939,15 @@
         <v>1.43</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s">
         <v>42</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49">
         <v>46</v>
@@ -1955,15 +1960,15 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H49">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50">
         <v>112</v>
@@ -1977,18 +1982,15 @@
         <v>1.04</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
         <v>42</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -2001,18 +2003,15 @@
         <v>0.83</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C52">
         <v>84</v>
@@ -2025,15 +2024,15 @@
         <v>1.37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H52">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C53">
         <f>2*23</f>
@@ -2053,7 +2052,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54">
         <f>24*3</f>
@@ -2073,7 +2072,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55">
         <f>24*3</f>
@@ -2093,7 +2092,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <f>21*4</f>
@@ -2112,7 +2111,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57">
         <f>21*4</f>
@@ -2131,7 +2130,7 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C58">
         <f>24*4</f>
@@ -2150,7 +2149,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59">
         <v>84</v>
@@ -2162,13 +2161,16 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
+      <c r="F59" t="s">
+        <v>178</v>
+      </c>
       <c r="H59">
         <v>84</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -2186,7 +2188,7 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C61">
         <v>24</v>
@@ -2202,68 +2204,67 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>22.23</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C63">
-        <f>SUM(C42:C62)</f>
-        <v>1762</v>
-      </c>
-      <c r="D63">
+      <c r="C64">
+        <f>SUM(C42:C63)</f>
+        <v>1786</v>
+      </c>
+      <c r="D64">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H63">
-        <f>SUM(H42:H62)</f>
-        <v>952</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
+      <c r="H64">
+        <f>SUM(H42:H63)</f>
+        <v>711</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C65">
-        <f>C63/C64</f>
-        <v>352.4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s">
-        <v>29</v>
+      <c r="C66">
+        <f>C64/C65</f>
+        <v>357.2</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D70">
-        <v>117.35</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ref="E70:E81" si="3">ROUND(D70/C70,2)</f>
-        <v>1.54</v>
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
@@ -2275,10 +2276,10 @@
         <v>76</v>
       </c>
       <c r="D71">
-        <v>117</v>
+        <v>117.35</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E71:E83" si="3">ROUND(D71/C71,2)</f>
         <v>1.54</v>
       </c>
     </row>
@@ -2291,11 +2292,11 @@
         <v>76</v>
       </c>
       <c r="D72">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72">
         <f t="shared" si="3"/>
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
@@ -2307,11 +2308,11 @@
         <v>76</v>
       </c>
       <c r="D73">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E73">
         <f t="shared" si="3"/>
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
@@ -2323,26 +2324,27 @@
         <v>76</v>
       </c>
       <c r="D74">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E74">
         <f t="shared" si="3"/>
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D75">
-        <v>26.8</v>
+        <v>107</v>
       </c>
       <c r="E75">
         <f t="shared" si="3"/>
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
@@ -2353,139 +2355,169 @@
         <v>18</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="E76">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78">
         <f>8*4</f>
         <v>32</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <f>13*4</f>
         <v>52</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <f t="shared" si="3"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79">
         <f>19*6</f>
         <v>114</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>199</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80">
         <f>4*19</f>
         <v>76</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>100.49</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
         <v>122</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>18</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>23.5</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <f t="shared" si="3"/>
         <v>1.31</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>177</v>
-      </c>
-      <c r="C81">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82">
         <v>80</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>90.77</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <f t="shared" si="3"/>
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84">
-        <f>SUM(C70:C83)</f>
-        <v>736</v>
-      </c>
-      <c r="D84">
-        <f>SUM(D70:D82)</f>
-        <v>1065.9100000000001</v>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>22.22</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>1.17</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <f>SUM(C71:C84)</f>
+        <v>755</v>
+      </c>
+      <c r="D85">
+        <f>SUM(D71:D83)</f>
+        <v>1088.1300000000001</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>10</v>
       </c>
-      <c r="C86">
-        <f>C84/C85</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>163</v>
+      <c r="C87">
+        <f>C85/C86</f>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>162</v>
-      </c>
-      <c r="C90">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91">
         <v>34</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>59</v>
       </c>
-      <c r="E90">
-        <f t="shared" ref="E90" si="4">ROUND(D90/C90,2)</f>
+      <c r="E91">
+        <f t="shared" ref="E91" si="4">ROUND(D91/C91,2)</f>
         <v>1.74</v>
       </c>
     </row>
@@ -2600,7 +2632,7 @@
         <v>0.57692307692307687</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -2618,7 +2650,7 @@
         <v>0.57692307692307687</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -2636,7 +2668,7 @@
         <v>0.57692307692307687</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2666,7 +2698,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10">
         <v>9.9</v>
@@ -2688,8 +2720,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2761,7 +2793,7 @@
         <v>59.96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2912,7 +2944,7 @@
         <v>23.83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2931,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2942,11 +2974,11 @@
         <f>33.12</f>
         <v>33.119999999999997</v>
       </c>
-      <c r="D10" t="s">
-        <v>175</v>
+      <c r="D10" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2959,7 +2991,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3005,7 +3037,7 @@
         <v>24.23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3063,7 +3095,7 @@
         <v>18.96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3094,7 +3126,7 @@
         <v>11.27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3125,7 +3157,7 @@
         <v>11.81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3156,7 +3188,7 @@
         <v>9.36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17">
         <v>0.1</v>
@@ -3240,7 +3272,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3431,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E27">
         <v>0.1</v>
@@ -3449,10 +3481,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28">
         <v>15.16</v>
@@ -3461,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,10 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.04.25-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好奇银装XL*19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -807,11 +803,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.05.11-2015.05.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余3*21</t>
+    <t>2015.05.11-2015.05.24
+2015.05.25-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余2*21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.25-2015.05.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余2*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.26-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适拉拉裤22L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D64</f>
+        <f>D3+D18+D36+D65</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -1929,7 +1942,7 @@
         <v>125.3</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E62" si="2">ROUND(D47/C47,2)</f>
+        <f t="shared" ref="E47:E63" si="2">ROUND(D47/C47,2)</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="F47" t="s">
@@ -2041,7 +2054,7 @@
         <v>1.37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" t="s">
         <v>42</v>
@@ -2067,7 +2080,7 @@
         <v>1.48</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H53">
         <v>46</v>
@@ -2089,8 +2102,14 @@
         <f t="shared" si="2"/>
         <v>1.41</v>
       </c>
+      <c r="F54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" t="s">
+        <v>185</v>
+      </c>
       <c r="H54">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
@@ -2113,7 +2132,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>157</v>
       </c>
@@ -2128,14 +2147,14 @@
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" t="s">
         <v>183</v>
       </c>
-      <c r="G56" t="s">
-        <v>184</v>
-      </c>
       <c r="H56">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
@@ -2191,7 +2210,10 @@
         <v>1.2</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
       </c>
       <c r="H59">
         <v>20</v>
@@ -2251,71 +2273,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0.41</v>
+      </c>
+      <c r="H63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C64">
-        <f>SUM(C42:C63)</f>
-        <v>1786</v>
-      </c>
-      <c r="D64">
+      <c r="C65">
+        <f>SUM(C42:C64)</f>
+        <v>1808</v>
+      </c>
+      <c r="D65">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H64">
-        <f>SUM(H42:H63)</f>
-        <v>615</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+      <c r="H65">
+        <f>SUM(H42:H64)</f>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
-        <f>C64/C65</f>
-        <v>357.2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+      <c r="C67">
+        <f>C65/C66</f>
+        <v>361.6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
         <v>50</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>50</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>12</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D71">
-        <v>117.35</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ref="E71:E83" si="3">ROUND(D71/C71,2)</f>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>51</v>
       </c>
@@ -2324,14 +2348,14 @@
         <v>76</v>
       </c>
       <c r="D72">
-        <v>117</v>
+        <v>117.35</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E72:E84" si="3">ROUND(D72/C72,2)</f>
         <v>1.54</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>51</v>
       </c>
@@ -2340,14 +2364,14 @@
         <v>76</v>
       </c>
       <c r="D73">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" si="3"/>
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>51</v>
       </c>
@@ -2356,14 +2380,14 @@
         <v>76</v>
       </c>
       <c r="D74">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E74">
         <f t="shared" si="3"/>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>51</v>
       </c>
@@ -2372,29 +2396,30 @@
         <v>76</v>
       </c>
       <c r="D75">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E75">
         <f t="shared" si="3"/>
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D76">
-        <v>26.8</v>
+        <v>107</v>
       </c>
       <c r="E76">
         <f t="shared" si="3"/>
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>122</v>
       </c>
@@ -2402,154 +2427,169 @@
         <v>18</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="E77">
         <f t="shared" si="3"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>135</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <f>8*4</f>
         <v>32</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <f>13*4</f>
         <v>52</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <f t="shared" si="3"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
         <v>169</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <f>19*6</f>
         <v>114</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>199</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
         <v>171</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <f>4*19</f>
         <v>76</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>100.49</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
         <v>122</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>18</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>23.5</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <f t="shared" si="3"/>
         <v>1.31</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
         <v>172</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>80</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>90.77</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <f t="shared" si="3"/>
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84">
         <v>19</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>22.22</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <f t="shared" si="3"/>
         <v>1.17</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85">
-        <f>SUM(C71:C84)</f>
-        <v>755</v>
-      </c>
-      <c r="D85">
-        <f>SUM(D71:D83)</f>
-        <v>1088.1300000000001</v>
-      </c>
-    </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <f>SUM(C72:C85)</f>
+        <v>755</v>
+      </c>
+      <c r="D86">
+        <f>SUM(D72:D84)</f>
+        <v>1088.1300000000001</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>10</v>
       </c>
-      <c r="C87">
-        <f>C85/C86</f>
+      <c r="C88">
+        <f>C86/C87</f>
         <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
         <v>160</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>34</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>59</v>
       </c>
-      <c r="E91">
-        <f t="shared" ref="E91" si="4">ROUND(D91/C91,2)</f>
+      <c r="E92">
+        <f t="shared" ref="E92" si="4">ROUND(D92/C92,2)</f>
         <v>1.74</v>
       </c>
     </row>
@@ -3007,7 +3047,7 @@
         <v>33.119999999999997</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -3099,7 +3139,7 @@
         <v>61.53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>7</v>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,14 @@
   </si>
   <si>
     <t>帮宝适拉拉裤22L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇金装18L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇金装15XL*12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D65</f>
+        <f>D3+D18+D36+D68</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -2291,100 +2299,82 @@
         <v>22</v>
       </c>
     </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:E65" si="3">ROUND(D64/C64,2)</f>
+        <v>0.86</v>
+      </c>
+    </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C65">
-        <f>SUM(C42:C64)</f>
-        <v>1808</v>
-      </c>
-      <c r="D65">
+      <c r="C68">
+        <f>SUM(C42:C67)</f>
+        <v>1848</v>
+      </c>
+      <c r="D68">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H65">
-        <f>SUM(H42:H64)</f>
+      <c r="H68">
+        <f>SUM(H42:H67)</f>
         <v>627</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>9</v>
       </c>
-      <c r="C66">
+      <c r="C69">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C67">
-        <f>C65/C66</f>
-        <v>361.6</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D72">
-        <v>117.35</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ref="E72:E84" si="3">ROUND(D72/C72,2)</f>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D73">
-        <v>117</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="3"/>
-        <v>1.54</v>
+      <c r="C70">
+        <f>C68/C69</f>
+        <v>369.6</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D74">
-        <v>115</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
-        <v>1.51</v>
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
@@ -2396,10 +2386,10 @@
         <v>76</v>
       </c>
       <c r="D75">
-        <v>117</v>
+        <v>117.35</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E75:E88" si="4">ROUND(D75/C75,2)</f>
         <v>1.54</v>
       </c>
     </row>
@@ -2412,184 +2402,248 @@
         <v>76</v>
       </c>
       <c r="D76">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
-        <v>1.41</v>
+        <f t="shared" si="4"/>
+        <v>1.54</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D77">
-        <v>26.8</v>
+        <v>115</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
-        <v>1.49</v>
+        <f t="shared" si="4"/>
+        <v>1.51</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.54</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79">
+        <f>68+8</f>
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <v>107</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>26.8</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
         <v>135</v>
       </c>
-      <c r="C79">
+      <c r="C82">
         <f>8*4</f>
         <v>32</v>
       </c>
-      <c r="D79">
+      <c r="D82">
         <f>13*4</f>
         <v>52</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="3"/>
+      <c r="E82">
+        <f t="shared" si="4"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
         <v>169</v>
       </c>
-      <c r="C80">
+      <c r="C83">
         <f>19*6</f>
         <v>114</v>
       </c>
-      <c r="D80">
+      <c r="D83">
         <v>199</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="3"/>
+      <c r="E83">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
         <v>171</v>
       </c>
-      <c r="C81">
+      <c r="C84">
         <f>4*19</f>
         <v>76</v>
       </c>
-      <c r="D81">
+      <c r="D84">
         <v>100.49</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="3"/>
+      <c r="E84">
+        <f t="shared" si="4"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>122</v>
       </c>
-      <c r="C82">
+      <c r="C85">
         <v>18</v>
       </c>
-      <c r="D82">
+      <c r="D85">
         <v>23.5</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="3"/>
+      <c r="E85">
+        <f t="shared" si="4"/>
         <v>1.31</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83">
-        <v>80</v>
-      </c>
-      <c r="D83">
-        <v>90.77</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="3"/>
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>177</v>
-      </c>
-      <c r="C84">
-        <v>19</v>
-      </c>
-      <c r="D84">
-        <v>22.22</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="3"/>
-        <v>1.17</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="C86">
-        <f>SUM(C72:C85)</f>
-        <v>755</v>
+        <v>80</v>
       </c>
       <c r="D86">
-        <f>SUM(D72:D84)</f>
-        <v>1088.1300000000001</v>
+        <v>90.77</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>22.22</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>1.17</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="C88">
-        <f>C86/C87</f>
-        <v>151</v>
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+      <c r="D88">
+        <v>322.74</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>161</v>
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <f>SUM(C75:C90)</f>
+        <v>935</v>
+      </c>
+      <c r="D91">
+        <f>SUM(D75:D88)</f>
+        <v>1410.8700000000001</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <f>C91/C92</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
         <v>160</v>
       </c>
-      <c r="C92">
+      <c r="C97">
         <v>34</v>
       </c>
-      <c r="D92">
+      <c r="D97">
         <v>59</v>
       </c>
-      <c r="E92">
-        <f t="shared" ref="E92" si="4">ROUND(D92/C92,2)</f>
+      <c r="E97">
+        <f t="shared" ref="E97" si="5">ROUND(D97/C97,2)</f>
         <v>1.74</v>
       </c>
     </row>
@@ -2793,7 +2847,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3128,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -3527,7 +3581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -3541,7 +3595,7 @@
         <v>146</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
@@ -3551,7 +3605,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -3583,7 +3637,6 @@
         <filter val="3"/>
         <filter val="36"/>
         <filter val="4"/>
-        <filter val="8"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -771,68 +771,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>剩余3*23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇银装XL*19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.09-2015.04.26
+2015.04.27-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.22-2015.05.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.01-2015.04.30 
+2015.05.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.25-2015.05.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余2*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.26-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适拉拉裤22L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇金装18L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇金装15XL*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适拉拉裤XL*54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适拉拉裤XXL12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-09_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适湿巾64*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.11-2015.05.24
+2015.05.25-2015.06.10
+2015.06.10-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余1*21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2014.10.12-2014.10.20
 2014.10.12-2014.10.20
-2015.04.28-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余3*23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好奇银装XL*19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.04.09-2015.04.26
-2015.04.27-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.04.22-2015.05.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.04.01-2015.04.30 
-2015.05.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.05.11-2015.05.24
-2015.05.25-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余2*21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.04.25-2015.05.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余2*24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.05.26-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮宝适拉拉裤22L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好奇金装18L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好奇金装15XL*12</t>
+2015.04.28-2015.06.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适拉拉裤L84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.11-2015.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1910,10 +1939,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" t="s">
         <v>175</v>
-      </c>
-      <c r="G45" t="s">
-        <v>176</v>
       </c>
       <c r="H45">
         <v>90</v>
@@ -2062,7 +2091,7 @@
         <v>1.37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G52" t="s">
         <v>42</v>
@@ -2088,7 +2117,7 @@
         <v>1.48</v>
       </c>
       <c r="F53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H53">
         <v>46</v>
@@ -2111,10 +2140,10 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H54">
         <v>70</v>
@@ -2140,7 +2169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>157</v>
       </c>
@@ -2156,13 +2185,13 @@
         <v>1.26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H56">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
@@ -2218,7 +2247,7 @@
         <v>1.2</v>
       </c>
       <c r="F59" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G59" t="s">
         <v>42</v>
@@ -2283,7 +2312,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C63">
         <v>22</v>
@@ -2301,7 +2330,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -2310,13 +2339,16 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E65" si="3">ROUND(D64/C64,2)</f>
+        <f t="shared" ref="E64:E66" si="3">ROUND(D64/C64,2)</f>
         <v>0.86</v>
+      </c>
+      <c r="H64">
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -2328,6 +2360,30 @@
         <f t="shared" si="3"/>
         <v>1.95</v>
       </c>
+      <c r="H65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66">
+        <v>84</v>
+      </c>
+      <c r="D66">
+        <v>106</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>1.26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>196</v>
+      </c>
+      <c r="H66">
+        <v>84</v>
+      </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
@@ -2335,7 +2391,7 @@
       </c>
       <c r="C68">
         <f>SUM(C42:C67)</f>
-        <v>1848</v>
+        <v>1932</v>
       </c>
       <c r="D68">
         <f>SUM(D42:D53)</f>
@@ -2343,7 +2399,7 @@
       </c>
       <c r="H68">
         <f>SUM(H42:H67)</f>
-        <v>627</v>
+        <v>738</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
@@ -2360,7 +2416,7 @@
       </c>
       <c r="C70">
         <f>C68/C69</f>
-        <v>369.6</v>
+        <v>386.4</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
@@ -2389,7 +2445,7 @@
         <v>117.35</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:E88" si="4">ROUND(D75/C75,2)</f>
+        <f t="shared" ref="E75:E90" si="4">ROUND(D75/C75,2)</f>
         <v>1.54</v>
       </c>
     </row>
@@ -2568,7 +2624,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87">
         <v>19</v>
@@ -2583,7 +2639,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C88">
         <f>15*12</f>
@@ -2597,54 +2653,99 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91">
-        <f>SUM(C75:C90)</f>
-        <v>935</v>
-      </c>
-      <c r="D91">
-        <f>SUM(D75:D88)</f>
-        <v>1410.8700000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>29</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90">
+        <v>54</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <f>SUM(C75:C92)</f>
+        <v>1007</v>
+      </c>
+      <c r="D93">
+        <f>SUM(D75:D90)</f>
+        <v>1449.8700000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
         <v>10</v>
       </c>
-      <c r="C93">
-        <f>C91/C92</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+      <c r="C95">
+        <f>C93/C94</f>
+        <v>201.4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
         <v>160</v>
       </c>
-      <c r="C97">
+      <c r="C99">
         <v>34</v>
       </c>
-      <c r="D97">
+      <c r="D99">
         <v>59</v>
       </c>
-      <c r="E97">
-        <f t="shared" ref="E97" si="5">ROUND(D97/C97,2)</f>
+      <c r="E99">
+        <f t="shared" ref="E99:E100" si="5">ROUND(D99/C99,2)</f>
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>29</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>2.42</v>
       </c>
     </row>
   </sheetData>
@@ -2844,10 +2945,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2864,7 +2965,7 @@
       </c>
       <c r="G1">
         <f>SUM(C12:C108)</f>
-        <v>367.6</v>
+        <v>386.6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2934,7 +3035,7 @@
         <v>80</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I27" si="0">E4*H4</f>
+        <f t="shared" ref="I4:I29" si="0">E4*H4</f>
         <v>0</v>
       </c>
     </row>
@@ -3101,7 +3202,7 @@
         <v>33.119999999999997</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -3193,7 +3294,7 @@
         <v>61.53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -3623,6 +3724,30 @@
       </c>
       <c r="F28" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29">
+        <v>64</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15075" windowHeight="4875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="纸尿裤" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="206">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,10 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.04.21-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.03.07-2015.04.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,12 +834,6 @@
   </si>
   <si>
     <t>帮宝适64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.05.11-2015.05.24
-2015.05.25-2015.06.10
-2015.06.10-2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -862,6 +852,52 @@
   </si>
   <si>
     <t>2015.06.11-2015.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.14-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.21-2015.06.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适湿巾56*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮宝适56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新安怡25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-16_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-17_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-18_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.11-2015.05.24
+2015.05.25-2015.06.10
+2015.06.10-2015.06.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.19-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余3*24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1265,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D68</f>
+        <f>D3+D18+D36+D70</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -1917,7 +1953,7 @@
         <v>1.21</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
@@ -1939,10 +1975,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45">
         <v>90</v>
@@ -2027,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
-      </c>
-      <c r="H49">
-        <v>20</v>
+        <v>196</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -2091,7 +2127,7 @@
         <v>1.37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
         <v>42</v>
@@ -2117,7 +2153,7 @@
         <v>1.48</v>
       </c>
       <c r="F53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H53">
         <v>46</v>
@@ -2140,10 +2176,10 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H54">
         <v>70</v>
@@ -2185,13 +2221,13 @@
         <v>1.26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H56">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
@@ -2228,6 +2264,12 @@
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" t="s">
+        <v>205</v>
+      </c>
       <c r="H58">
         <v>96</v>
       </c>
@@ -2247,7 +2289,7 @@
         <v>1.2</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59" t="s">
         <v>42</v>
@@ -2312,7 +2354,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63">
         <v>22</v>
@@ -2330,7 +2372,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -2339,7 +2381,7 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E66" si="3">ROUND(D64/C64,2)</f>
+        <f t="shared" ref="E64:E67" si="3">ROUND(D64/C64,2)</f>
         <v>0.86</v>
       </c>
       <c r="H64">
@@ -2348,7 +2390,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -2360,13 +2402,19 @@
         <f t="shared" si="3"/>
         <v>1.95</v>
       </c>
+      <c r="F65" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
       <c r="H65">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C66">
         <v>84</v>
@@ -2379,90 +2427,73 @@
         <v>1.26</v>
       </c>
       <c r="F66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H66">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C68">
-        <f>SUM(C42:C67)</f>
-        <v>1932</v>
-      </c>
-      <c r="D68">
+      <c r="C70">
+        <f>SUM(C42:C69)</f>
+        <v>1956</v>
+      </c>
+      <c r="D70">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H68">
-        <f>SUM(H42:H67)</f>
-        <v>738</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+      <c r="H70">
+        <f>SUM(H42:H69)</f>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="C70">
-        <f>C68/C69</f>
-        <v>386.4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D75">
-        <v>117.35</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ref="E75:E90" si="4">ROUND(D75/C75,2)</f>
-        <v>1.54</v>
+      <c r="C72">
+        <f>C70/C71</f>
+        <v>391.2</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D76">
-        <v>117</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="4"/>
-        <v>1.54</v>
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.15">
@@ -2474,11 +2505,11 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>115</v>
+        <v>117.35</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
-        <v>1.51</v>
+        <f t="shared" ref="E77:E92" si="4">ROUND(D77/C77,2)</f>
+        <v>1.54</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
@@ -2506,244 +2537,276 @@
         <v>76</v>
       </c>
       <c r="D79">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E79">
         <f t="shared" si="4"/>
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D80">
-        <v>26.8</v>
+        <v>117</v>
       </c>
       <c r="E80">
         <f t="shared" si="4"/>
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E81">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>26.8</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
         <v>135</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <f>8*4</f>
         <v>32</v>
       </c>
-      <c r="D82">
+      <c r="D84">
         <f>13*4</f>
         <v>52</v>
       </c>
-      <c r="E82">
+      <c r="E84">
         <f t="shared" si="4"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>169</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <f>19*6</f>
         <v>114</v>
       </c>
-      <c r="D83">
+      <c r="D85">
         <v>199</v>
       </c>
-      <c r="E83">
+      <c r="E85">
         <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>171</v>
       </c>
-      <c r="C84">
+      <c r="C86">
         <f>4*19</f>
         <v>76</v>
       </c>
-      <c r="D84">
+      <c r="D86">
         <v>100.49</v>
       </c>
-      <c r="E84">
+      <c r="E86">
         <f t="shared" si="4"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>122</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <v>18</v>
       </c>
-      <c r="D85">
+      <c r="D87">
         <v>23.5</v>
       </c>
-      <c r="E85">
+      <c r="E87">
         <f t="shared" si="4"/>
         <v>1.31</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>172</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>80</v>
       </c>
-      <c r="D86">
+      <c r="D88">
         <v>90.77</v>
       </c>
-      <c r="E86">
+      <c r="E88">
         <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89">
         <v>19</v>
       </c>
-      <c r="D87">
+      <c r="D89">
         <v>22.22</v>
       </c>
-      <c r="E87">
+      <c r="E89">
         <f t="shared" si="4"/>
         <v>1.17</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90">
         <f>15*12</f>
         <v>180</v>
       </c>
-      <c r="D88">
+      <c r="D90">
         <v>322.74</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <f t="shared" si="4"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
         <v>122</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <v>18</v>
       </c>
-      <c r="D89">
+      <c r="D91">
         <v>29</v>
       </c>
-      <c r="E89">
+      <c r="E91">
         <f t="shared" si="4"/>
         <v>1.61</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92">
         <v>54</v>
       </c>
-      <c r="D90">
+      <c r="D92">
         <v>10</v>
       </c>
-      <c r="E90">
+      <c r="E92">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93">
-        <f>SUM(C75:C92)</f>
-        <v>1007</v>
-      </c>
-      <c r="D93">
-        <f>SUM(D75:D90)</f>
-        <v>1449.8700000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94">
-        <v>5</v>
-      </c>
-    </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <f>SUM(C77:C94)</f>
+        <v>1007</v>
+      </c>
+      <c r="D95">
+        <f>SUM(D77:D92)</f>
+        <v>1449.8700000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
         <v>10</v>
       </c>
-      <c r="C95">
-        <f>C93/C94</f>
+      <c r="C97">
+        <f>C95/C96</f>
         <v>201.4</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
-        <v>160</v>
-      </c>
-      <c r="C99">
-        <v>34</v>
-      </c>
-      <c r="D99">
-        <v>59</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ref="E99:E100" si="5">ROUND(D99/C99,2)</f>
-        <v>1.74</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101">
+        <v>34</v>
+      </c>
+      <c r="D101">
+        <v>59</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101:E102" si="5">ROUND(D101/C101,2)</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102">
         <v>12</v>
       </c>
-      <c r="D100">
+      <c r="D102">
         <v>29</v>
       </c>
-      <c r="E100">
+      <c r="E102">
         <f t="shared" si="5"/>
         <v>2.42</v>
       </c>
@@ -2945,10 +3008,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2964,8 +3027,8 @@
         <v>23</v>
       </c>
       <c r="G1">
-        <f>SUM(C12:C108)</f>
-        <v>386.6</v>
+        <f>SUM(C12:C107)</f>
+        <v>418.5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3035,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I29" si="0">E4*H4</f>
+        <f t="shared" ref="I4:I30" si="0">E4*H4</f>
         <v>0</v>
       </c>
     </row>
@@ -3202,7 +3265,7 @@
         <v>33.119999999999997</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -3294,7 +3357,7 @@
         <v>61.53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -3728,10 +3791,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s">
         <v>189</v>
-      </c>
-      <c r="B29" t="s">
-        <v>190</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -3740,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H29">
         <v>64</v>
@@ -3748,6 +3811,81 @@
       <c r="I29">
         <f t="shared" si="0"/>
         <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30">
+        <v>9.5</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30">
+        <v>56</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32">
+        <v>1.4</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="纸尿裤" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="210">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -898,6 +898,22 @@
   </si>
   <si>
     <t>剩余3*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-19_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-20_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝亲湿巾80*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝亲80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1272,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
@@ -3008,10 +3024,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3028,7 +3044,7 @@
       </c>
       <c r="G1">
         <f>SUM(C12:C107)</f>
-        <v>418.5</v>
+        <v>461.9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3885,6 +3901,74 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34">
+        <v>9.5</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35">
+        <v>9.5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36">
+        <v>14.9</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37">
+        <v>9.5</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
         <v>198</v>
       </c>
     </row>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="纸尿裤" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,10 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.05.26-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帮宝适拉拉裤22L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,10 +851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.06.14-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.04.21-2015.06.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,14 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.06.19-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余3*24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015-06-19_JD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,6 +898,19 @@
   </si>
   <si>
     <t>贝亲80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.14-2015.07.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.19-2015.07.02
+2015.07.03-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.26-2015.06.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1288,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1991,7 +1988,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
         <v>174</v>
@@ -2079,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G49" t="s">
         <v>42</v>
@@ -2192,13 +2189,13 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
         <v>181</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
@@ -2237,10 +2234,10 @@
         <v>1.26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H56">
         <v>21</v>
@@ -2265,7 +2262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>159</v>
       </c>
@@ -2281,10 +2278,10 @@
         <v>1.26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H58">
         <v>96</v>
@@ -2370,7 +2367,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63">
         <v>22</v>
@@ -2388,7 +2385,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -2406,7 +2403,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -2419,10 +2416,10 @@
         <v>1.95</v>
       </c>
       <c r="F65" t="s">
-        <v>195</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
       </c>
       <c r="H65">
         <v>18</v>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66">
         <v>84</v>
@@ -2443,7 +2440,7 @@
         <v>1.26</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H66">
         <v>84</v>
@@ -2478,7 +2475,7 @@
       </c>
       <c r="H70">
         <f>SUM(H42:H69)</f>
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
@@ -2718,7 +2715,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C90">
         <f>15*12</f>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92">
         <v>54</v>
@@ -2814,7 +2811,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C102">
         <v>12</v>
@@ -3026,7 +3023,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -3807,10 +3804,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
         <v>188</v>
-      </c>
-      <c r="B29" t="s">
-        <v>189</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -3819,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29">
         <v>64</v>
@@ -3831,10 +3828,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C30">
         <v>9.5</v>
@@ -3843,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H30">
         <v>56</v>
@@ -3855,10 +3852,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -3867,15 +3864,15 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C32">
         <v>1.4</v>
@@ -3884,15 +3881,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -3901,15 +3898,15 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C34">
         <v>9.5</v>
@@ -3918,15 +3915,15 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C35">
         <v>9.5</v>
@@ -3935,15 +3932,15 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C36">
         <v>14.9</v>
@@ -3952,15 +3949,15 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37">
         <v>9.5</v>
@@ -3969,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="211">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,12 +905,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2015.05.26-2015.06.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015.06.19-2015.07.02
-2015.07.03-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.05.26-2015.06.10</t>
+2015.07.03-2015.07.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余1*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.26-2015.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2189,7 +2197,7 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G54" t="s">
         <v>181</v>
@@ -2278,10 +2286,10 @@
         <v>1.26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="H58">
         <v>96</v>
@@ -2378,6 +2386,9 @@
       <c r="E63">
         <f t="shared" si="2"/>
         <v>0.41</v>
+      </c>
+      <c r="F63" t="s">
+        <v>210</v>
       </c>
       <c r="H63">
         <v>22</v>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="211">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,10 +833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余1*21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2014.10.12-2014.10.20
 2014.10.12-2014.10.20
 2015.04.28-2015.06.11</t>
@@ -847,10 +843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.06.11-2015.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.04.21-2015.06.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,49 +868,58 @@
   </si>
   <si>
     <t>2015-06-18_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-19_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-20_JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝亲湿巾80*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝亲80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.14-2015.07.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.26-2015.06.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.19-2015.07.02
+2015.07.03-2015.07.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余1*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.26-2015.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.11-2015.08.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015.05.11-2015.05.24
 2015.05.25-2015.06.10
-2015.06.10-2015.06.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-06-19_JD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-06-20_JD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝亲湿巾80*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝亲80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.06.14-2015.07.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.05.26-2015.06.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.06.19-2015.07.02
-2015.07.03-2015.07.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余1*24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.07.26-2015.</t>
+2015.06.10-2015.06.19
+2015.08.06-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余0*21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1996,7 +1997,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" t="s">
         <v>174</v>
@@ -2084,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G49" t="s">
         <v>42</v>
@@ -2197,7 +2198,7 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G54" t="s">
         <v>181</v>
@@ -2226,7 +2227,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>157</v>
       </c>
@@ -2242,10 +2243,10 @@
         <v>1.26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H56">
         <v>21</v>
@@ -2286,10 +2287,10 @@
         <v>1.26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H58">
         <v>96</v>
@@ -2388,7 +2389,7 @@
         <v>0.41</v>
       </c>
       <c r="F63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H63">
         <v>22</v>
@@ -2427,7 +2428,7 @@
         <v>1.95</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -2438,7 +2439,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C66">
         <v>84</v>
@@ -2451,7 +2452,10 @@
         <v>1.26</v>
       </c>
       <c r="F66" t="s">
-        <v>193</v>
+        <v>208</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
       </c>
       <c r="H66">
         <v>84</v>
@@ -3839,10 +3843,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C30">
         <v>9.5</v>
@@ -3851,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H30">
         <v>56</v>
@@ -3863,10 +3867,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -3875,15 +3879,15 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32">
         <v>1.4</v>
@@ -3892,15 +3896,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -3909,15 +3913,15 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C34">
         <v>9.5</v>
@@ -3926,15 +3930,15 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <v>9.5</v>
@@ -3943,15 +3947,15 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C36">
         <v>14.9</v>
@@ -3960,15 +3964,15 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C37">
         <v>9.5</v>
@@ -3977,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="212">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,11 +915,15 @@
     <t>2015.05.11-2015.05.24
 2015.05.25-2015.06.10
 2015.06.10-2015.06.19
-2015.08.06-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余0*21</t>
+2015.08.06-2015.08.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.08.16-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1295,7 +1299,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2246,10 +2250,10 @@
         <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
@@ -2267,6 +2271,12 @@
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
+      <c r="F57" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" t="s">
+        <v>211</v>
+      </c>
       <c r="H57">
         <v>84</v>
       </c>
@@ -2490,7 +2500,7 @@
       </c>
       <c r="H70">
         <f>SUM(H42:H69)</f>
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,10 +797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余2*24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帮宝适拉拉裤22L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -891,20 +887,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.05.26-2015.06.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.06.19-2015.07.02
 2015.07.03-2015.07.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剩余1*24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.07.26-2015.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -924,6 +912,19 @@
   </si>
   <si>
     <t>3*21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.07.26-2015.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.26-2015.06.10
+2015.08.18-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余1*24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2001,7 +2002,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
         <v>174</v>
@@ -2089,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
         <v>42</v>
@@ -2185,7 +2186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>156</v>
       </c>
@@ -2202,10 +2203,10 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="H54">
         <v>48</v>
@@ -2247,7 +2248,7 @@
         <v>1.26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G56" t="s">
         <v>42</v>
@@ -2272,10 +2273,10 @@
         <v>1.26</v>
       </c>
       <c r="F57" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H57">
         <v>84</v>
@@ -2297,13 +2298,13 @@
         <v>1.26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H58">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
@@ -2386,7 +2387,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C63">
         <v>22</v>
@@ -2399,15 +2400,18 @@
         <v>0.41</v>
       </c>
       <c r="F63" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -2425,7 +2429,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -2438,7 +2442,7 @@
         <v>1.95</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -2449,7 +2453,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66">
         <v>84</v>
@@ -2462,7 +2466,7 @@
         <v>1.26</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -2500,7 +2504,7 @@
       </c>
       <c r="H70">
         <f>SUM(H42:H69)</f>
-        <v>654</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
@@ -2740,7 +2744,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90">
         <f>15*12</f>
@@ -2771,7 +2775,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C92">
         <v>54</v>
@@ -2836,7 +2840,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102">
         <v>12</v>
@@ -3829,10 +3833,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="s">
         <v>187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>188</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -3841,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H29">
         <v>64</v>
@@ -3853,10 +3857,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30">
         <v>9.5</v>
@@ -3865,7 +3869,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H30">
         <v>56</v>
@@ -3877,10 +3881,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -3889,15 +3893,15 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32">
         <v>1.4</v>
@@ -3906,15 +3910,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -3923,15 +3927,15 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C34">
         <v>9.5</v>
@@ -3940,15 +3944,15 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35">
         <v>9.5</v>
@@ -3957,15 +3961,15 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36">
         <v>14.9</v>
@@ -3974,15 +3978,15 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C37">
         <v>9.5</v>
@@ -3991,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="212">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1297,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1328,7 +1328,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D70</f>
+        <f>D3+D18+D36+D71</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E67" si="3">ROUND(D64/C64,2)</f>
+        <f t="shared" ref="E64:E68" si="3">ROUND(D64/C64,2)</f>
         <v>0.86</v>
       </c>
       <c r="H64">
@@ -2490,68 +2490,67 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>30</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C70">
-        <f>SUM(C42:C69)</f>
-        <v>1956</v>
-      </c>
-      <c r="D70">
+      <c r="C71">
+        <f>SUM(C42:C70)</f>
+        <v>1978</v>
+      </c>
+      <c r="D71">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H70">
-        <f>SUM(H42:H69)</f>
+      <c r="H71">
+        <f>SUM(H42:H70)</f>
         <v>560</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
         <v>10</v>
       </c>
-      <c r="C72">
-        <f>C70/C71</f>
-        <v>391.2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" t="s">
-        <v>29</v>
+      <c r="C73">
+        <f>C71/C72</f>
+        <v>395.6</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D77">
-        <v>117.35</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ref="E77:E92" si="4">ROUND(D77/C77,2)</f>
-        <v>1.54</v>
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
@@ -2563,10 +2562,10 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>117</v>
+        <v>117.35</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E78:E93" si="4">ROUND(D78/C78,2)</f>
         <v>1.54</v>
       </c>
     </row>
@@ -2579,11 +2578,11 @@
         <v>76</v>
       </c>
       <c r="D79">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79">
         <f t="shared" si="4"/>
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
@@ -2595,11 +2594,11 @@
         <v>76</v>
       </c>
       <c r="D80">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80">
         <f t="shared" si="4"/>
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
@@ -2611,26 +2610,27 @@
         <v>76</v>
       </c>
       <c r="D81">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E81">
         <f t="shared" si="4"/>
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D82">
-        <v>26.8</v>
+        <v>107</v>
       </c>
       <c r="E82">
         <f t="shared" si="4"/>
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
@@ -2641,214 +2641,229 @@
         <v>18</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="E83">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84">
+        <v>18</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>135</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <f>8*4</f>
         <v>32</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <f>13*4</f>
         <v>52</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <f t="shared" si="4"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>169</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <f>19*6</f>
         <v>114</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>199</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>171</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <f>4*19</f>
         <v>76</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>100.49</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <f t="shared" si="4"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>122</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>18</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>23.5</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <f t="shared" si="4"/>
         <v>1.31</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>172</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>80</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>90.77</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>175</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>19</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>22.22</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <f t="shared" si="4"/>
         <v>1.17</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
         <v>183</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <f>15*12</f>
         <v>180</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>322.74</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <f t="shared" si="4"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
         <v>122</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>18</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>29</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <f t="shared" si="4"/>
         <v>1.61</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
         <v>184</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>54</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>10</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95">
-        <f>SUM(C77:C94)</f>
-        <v>1007</v>
-      </c>
-      <c r="D95">
-        <f>SUM(D77:D92)</f>
-        <v>1449.8700000000001</v>
-      </c>
-    </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <f>SUM(C78:C95)</f>
+        <v>1007</v>
+      </c>
+      <c r="D96">
+        <f>SUM(D78:D93)</f>
+        <v>1449.8700000000001</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
         <v>10</v>
       </c>
-      <c r="C97">
-        <f>C95/C96</f>
+      <c r="C98">
+        <f>C96/C97</f>
         <v>201.4</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>160</v>
-      </c>
-      <c r="C101">
-        <v>34</v>
-      </c>
-      <c r="D101">
-        <v>59</v>
-      </c>
-      <c r="E101">
-        <f t="shared" ref="E101:E102" si="5">ROUND(D101/C101,2)</f>
-        <v>1.74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102">
+        <v>34</v>
+      </c>
+      <c r="D102">
+        <v>59</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ref="E102:E103" si="5">ROUND(D102/C102,2)</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
         <v>185</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>12</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>29</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <f t="shared" si="5"/>
         <v>2.42</v>
       </c>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,12 +919,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>剩余1*24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.08.29-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015.05.26-2015.06.10
-2015.08.18-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余1*24</t>
+2015.08.18-2015.08.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1299,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2203,10 +2207,10 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" t="s">
         <v>210</v>
-      </c>
-      <c r="G54" t="s">
-        <v>211</v>
       </c>
       <c r="H54">
         <v>48</v>
@@ -2503,6 +2507,9 @@
       <c r="E68">
         <f t="shared" si="3"/>
         <v>1.36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -907,10 +907,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.08.16-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3*21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -919,16 +915,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余1*24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.08.29-2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2015.08.16-2015.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015.05.26-2015.06.10
-2015.08.18-2015.08.29</t>
+2015.08.18-2015.08.29
+2015.09.02-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1303,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2190,7 +2191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>156</v>
       </c>
@@ -2207,10 +2208,10 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" t="s">
         <v>212</v>
-      </c>
-      <c r="G54" t="s">
-        <v>210</v>
       </c>
       <c r="H54">
         <v>48</v>
@@ -2277,10 +2278,10 @@
         <v>1.26</v>
       </c>
       <c r="F57" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" t="s">
         <v>207</v>
-      </c>
-      <c r="G57" t="s">
-        <v>208</v>
       </c>
       <c r="H57">
         <v>84</v>
@@ -2404,7 +2405,7 @@
         <v>0.41</v>
       </c>
       <c r="F63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -2509,7 +2510,7 @@
         <v>1.36</v>
       </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="213">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,21 +915,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.08.29-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.08.16-2015.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.08.29-2015.09.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015.05.26-2015.06.10
 2015.08.18-2015.08.29
-2015.09.02-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余24</t>
+2015.09.02-2015
+2015.09.12-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -2191,7 +2192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>156</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>1.26</v>
       </c>
       <c r="F57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G57" t="s">
         <v>207</v>
@@ -2510,7 +2511,10 @@
         <v>1.36</v>
       </c>
       <c r="F68" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="215">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,14 +923,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>剩余0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015.05.26-2015.06.10
 2015.08.18-2015.08.29
-2015.09.02-2015
+2015.09.02-2015.09.18
 2015.09.12-2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余0</t>
+    <t>2015.09.19-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,7 +1314,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2014,7 +2022,8 @@
         <v>174</v>
       </c>
       <c r="H45">
-        <v>90</v>
+        <f>3*23</f>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2189,7 +2198,7 @@
         <v>178</v>
       </c>
       <c r="H53">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="54" x14ac:dyDescent="0.15">
@@ -2209,13 +2218,13 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" t="s">
         <v>211</v>
       </c>
-      <c r="G54" t="s">
-        <v>212</v>
-      </c>
       <c r="H54">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
@@ -2234,6 +2243,12 @@
         <f t="shared" si="2"/>
         <v>1.41</v>
       </c>
+      <c r="F55" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" t="s">
+        <v>214</v>
+      </c>
       <c r="H55">
         <v>72</v>
       </c>
@@ -2285,7 +2300,7 @@
         <v>207</v>
       </c>
       <c r="H57">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -2334,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
@@ -2352,7 +2367,7 @@
         <v>0.5</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
@@ -2478,7 +2493,7 @@
         <v>42</v>
       </c>
       <c r="H66">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.15">
@@ -2495,6 +2510,9 @@
         <f t="shared" si="3"/>
         <v>0.71</v>
       </c>
+      <c r="H67">
+        <v>24</v>
+      </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
@@ -2516,6 +2534,9 @@
       <c r="G68" t="s">
         <v>42</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
@@ -2531,7 +2552,7 @@
       </c>
       <c r="H71">
         <f>SUM(H42:H70)</f>
-        <v>560</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="213">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,10 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余3*23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好奇银装XL*19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,12 +822,6 @@
   </si>
   <si>
     <t>帮宝适64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014.10.12-2014.10.20
-2014.10.12-2014.10.20
-2015.04.28-2015.06.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -907,38 +897,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3*21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.07.26-2015.08.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.08.16-2015.09.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.08.29-2015.09.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余0</t>
+    <t>2014.10.12-2014.10.20
+2014.10.12-2014.10.20
+2015.04.28-2015.06.11
+2015.09.25-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余2*23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015.05.26-2015.06.10
 2015.08.18-2015.08.29
 2015.09.02-2015.09.18
-2015.09.12-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.09.19-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余2</t>
+2015.09.12-2015.09.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.09.19-2015
+2015.09.01租房用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.08.16-2015.09.01
+2015.09.25-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1313,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2000,7 +1995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -2016,10 +2011,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="H45">
         <f>3*23</f>
@@ -2105,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G49" t="s">
         <v>42</v>
@@ -2169,7 +2164,7 @@
         <v>1.37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G52" t="s">
         <v>42</v>
@@ -2195,7 +2190,7 @@
         <v>1.48</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2218,16 +2213,16 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="H54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>156</v>
       </c>
@@ -2243,11 +2238,11 @@
         <f t="shared" si="2"/>
         <v>1.41</v>
       </c>
-      <c r="F55" t="s">
-        <v>213</v>
+      <c r="F55" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="G55" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H55">
         <v>72</v>
@@ -2269,7 +2264,7 @@
         <v>1.26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G56" t="s">
         <v>42</v>
@@ -2278,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>157</v>
       </c>
@@ -2293,11 +2288,11 @@
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
-      <c r="F57" t="s">
-        <v>209</v>
+      <c r="F57" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="G57" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H57">
         <v>63</v>
@@ -2319,10 +2314,10 @@
         <v>1.26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H58">
         <v>24</v>
@@ -2343,7 +2338,7 @@
         <v>1.2</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G59" t="s">
         <v>42</v>
@@ -2408,7 +2403,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C63">
         <v>22</v>
@@ -2421,7 +2416,7 @@
         <v>0.41</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -2432,7 +2427,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -2450,7 +2445,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C65">
         <v>18</v>
@@ -2463,7 +2458,7 @@
         <v>1.95</v>
       </c>
       <c r="F65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -2474,7 +2469,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66">
         <v>84</v>
@@ -2487,7 +2482,7 @@
         <v>1.26</v>
       </c>
       <c r="F66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -2516,7 +2511,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68">
         <v>22</v>
@@ -2529,7 +2524,7 @@
         <v>1.36</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G68" t="s">
         <v>42</v>
@@ -2777,7 +2772,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90">
         <v>19</v>
@@ -2792,7 +2787,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C91">
         <f>15*12</f>
@@ -2823,7 +2818,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93">
         <v>54</v>
@@ -2888,7 +2883,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C103">
         <v>12</v>
@@ -3355,7 +3350,7 @@
         <v>33.119999999999997</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -3447,7 +3442,7 @@
         <v>61.53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -3881,10 +3876,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
         <v>186</v>
-      </c>
-      <c r="B29" t="s">
-        <v>187</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -3893,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H29">
         <v>64</v>
@@ -3905,10 +3900,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30">
         <v>9.5</v>
@@ -3917,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H30">
         <v>56</v>
@@ -3929,10 +3924,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -3941,15 +3936,15 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C32">
         <v>1.4</v>
@@ -3958,15 +3953,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -3975,15 +3970,15 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C34">
         <v>9.5</v>
@@ -3992,15 +3987,15 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35">
         <v>9.5</v>
@@ -4009,15 +4004,15 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s">
         <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>200</v>
       </c>
       <c r="C36">
         <v>14.9</v>
@@ -4026,15 +4021,15 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C37">
         <v>9.5</v>
@@ -4043,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -923,17 +923,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.09.19-2015
+    <t>2*21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.08.16-2015.09.01
+2015.09.25-2015.10.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.09.19-2015.10.03
 2015.09.01租房用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.08.16-2015.09.01
-2015.09.25-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2239,7 +2239,7 @@
         <v>1.41</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G55" t="s">
         <v>202</v>
@@ -2292,7 +2292,7 @@
         <v>211</v>
       </c>
       <c r="G57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H57">
         <v>63</v>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="214">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,7 +933,12 @@
   </si>
   <si>
     <t>2015.09.19-2015.10.03
-2015.09.01租房用</t>
+2015.09.01租房用
+2015.10.13-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2222,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>156</v>
       </c>
@@ -2242,10 +2247,10 @@
         <v>212</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H55">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="54" x14ac:dyDescent="0.15">
@@ -2547,7 +2552,7 @@
       </c>
       <c r="H71">
         <f>SUM(H42:H70)</f>
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,6 +939,10 @@
   </si>
   <si>
     <t>剩余0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇银装50L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1342,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D71</f>
+        <f>D3+D18+D36+D72</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -2441,7 +2445,7 @@
         <v>19</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E68" si="3">ROUND(D64/C64,2)</f>
+        <f t="shared" ref="E64:E69" si="3">ROUND(D64/C64,2)</f>
         <v>0.86</v>
       </c>
       <c r="H64">
@@ -2538,68 +2542,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>46.5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C71">
-        <f>SUM(C42:C70)</f>
-        <v>1978</v>
-      </c>
-      <c r="D71">
+      <c r="C72">
+        <f>SUM(C42:C71)</f>
+        <v>2028</v>
+      </c>
+      <c r="D72">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H71">
-        <f>SUM(H42:H70)</f>
+      <c r="H72">
+        <f>SUM(H42:H71)</f>
         <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
         <v>10</v>
       </c>
-      <c r="C73">
-        <f>C71/C72</f>
-        <v>395.6</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>29</v>
+      <c r="C74">
+        <f>C72/C73</f>
+        <v>405.6</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D78">
-        <v>117.35</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ref="E78:E93" si="4">ROUND(D78/C78,2)</f>
-        <v>1.54</v>
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
@@ -2611,10 +2614,10 @@
         <v>76</v>
       </c>
       <c r="D79">
-        <v>117</v>
+        <v>117.35</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E79:E94" si="4">ROUND(D79/C79,2)</f>
         <v>1.54</v>
       </c>
     </row>
@@ -2627,11 +2630,11 @@
         <v>76</v>
       </c>
       <c r="D80">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80">
         <f t="shared" si="4"/>
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
@@ -2643,11 +2646,11 @@
         <v>76</v>
       </c>
       <c r="D81">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <f t="shared" si="4"/>
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
@@ -2659,26 +2662,27 @@
         <v>76</v>
       </c>
       <c r="D82">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E82">
         <f t="shared" si="4"/>
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D83">
-        <v>26.8</v>
+        <v>107</v>
       </c>
       <c r="E83">
         <f t="shared" si="4"/>
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
@@ -2689,215 +2693,245 @@
         <v>18</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="E84">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>135</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <f>8*4</f>
         <v>32</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <f>13*4</f>
         <v>52</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <f t="shared" si="4"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>169</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <f>19*6</f>
         <v>114</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>199</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>171</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <f>4*19</f>
         <v>76</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>100.49</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <f t="shared" si="4"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>122</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>18</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>23.5</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <f t="shared" si="4"/>
         <v>1.31</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>172</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>80</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>90.77</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>19</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>22.22</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <f t="shared" si="4"/>
         <v>1.17</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
         <v>182</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <f>15*12</f>
         <v>180</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>322.74</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <f t="shared" si="4"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
         <v>122</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>18</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>29</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <f t="shared" si="4"/>
         <v>1.61</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
         <v>183</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>54</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>10</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96">
-        <f>SUM(C78:C95)</f>
-        <v>1007</v>
-      </c>
-      <c r="D96">
-        <f>SUM(D78:D93)</f>
-        <v>1449.8700000000001</v>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>11.9</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95" si="5">ROUND(D95/C95,2)</f>
+        <v>0.63</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <f>SUM(C79:C96)</f>
+        <v>1026</v>
+      </c>
+      <c r="D97">
+        <f>SUM(D79:D94)</f>
+        <v>1449.8700000000001</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C98">
-        <f>C96/C97</f>
-        <v>201.4</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
-        <v>161</v>
+      <c r="C99">
+        <f>C97/C98</f>
+        <v>205.2</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102">
-        <v>34</v>
-      </c>
-      <c r="D102">
-        <v>59</v>
-      </c>
-      <c r="E102">
-        <f t="shared" ref="E102:E103" si="5">ROUND(D102/C102,2)</f>
-        <v>1.74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103">
+        <v>34</v>
+      </c>
+      <c r="D103">
+        <v>59</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103:E104" si="6">ROUND(D103/C103,2)</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
         <v>184</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>12</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>29</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="5"/>
+      <c r="E104">
+        <f t="shared" si="6"/>
         <v>2.42</v>
       </c>
     </row>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1315,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1346,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D72</f>
+        <f>D3+D18+D36+D74</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -2557,84 +2557,82 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>20.9</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:E71" si="4">ROUND(D70/C70,2)</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>21.2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C72">
-        <f>SUM(C42:C71)</f>
-        <v>2028</v>
-      </c>
-      <c r="D72">
+      <c r="C74">
+        <f>SUM(C42:C73)</f>
+        <v>2076</v>
+      </c>
+      <c r="D74">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H72">
-        <f>SUM(H42:H71)</f>
+      <c r="H74">
+        <f>SUM(H42:H73)</f>
         <v>323</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
         <v>9</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>10</v>
       </c>
-      <c r="C74">
-        <f>C72/C73</f>
-        <v>405.6</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D79">
-        <v>117.35</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ref="E79:E94" si="4">ROUND(D79/C79,2)</f>
-        <v>1.54</v>
+      <c r="C76">
+        <f>C74/C75</f>
+        <v>415.2</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D80">
-        <v>117</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="4"/>
-        <v>1.54</v>
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
@@ -2646,11 +2644,11 @@
         <v>76</v>
       </c>
       <c r="D81">
-        <v>115</v>
+        <v>117.35</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
-        <v>1.51</v>
+        <f t="shared" ref="E81:E96" si="5">ROUND(D81/C81,2)</f>
+        <v>1.54</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
@@ -2665,7 +2663,7 @@
         <v>117</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.54</v>
       </c>
     </row>
@@ -2678,260 +2676,292 @@
         <v>76</v>
       </c>
       <c r="D83">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
-        <v>1.41</v>
+        <f t="shared" si="5"/>
+        <v>1.51</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D84">
-        <v>26.8</v>
+        <v>117</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
-        <v>1.49</v>
+        <f t="shared" si="5"/>
+        <v>1.54</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <f>68+8</f>
+        <v>76</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.41</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>26.8</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>135</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <f>8*4</f>
         <v>32</v>
       </c>
-      <c r="D86">
+      <c r="D88">
         <f>13*4</f>
         <v>52</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="4"/>
+      <c r="E88">
+        <f t="shared" si="5"/>
         <v>1.63</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>169</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <f>19*6</f>
         <v>114</v>
       </c>
-      <c r="D87">
+      <c r="D89">
         <v>199</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="4"/>
+      <c r="E89">
+        <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>171</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <f>4*19</f>
         <v>76</v>
       </c>
-      <c r="D88">
+      <c r="D90">
         <v>100.49</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="4"/>
+      <c r="E90">
+        <f t="shared" si="5"/>
         <v>1.32</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89">
-        <v>18</v>
-      </c>
-      <c r="D89">
-        <v>23.5</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="4"/>
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90">
-        <v>80</v>
-      </c>
-      <c r="D90">
-        <v>90.77</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="4"/>
-        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>22.22</v>
+        <v>23.5</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
-        <v>1.17</v>
+        <f t="shared" si="5"/>
+        <v>1.31</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92">
+        <v>80</v>
+      </c>
+      <c r="D92">
+        <v>90.77</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>22.22</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
         <v>182</v>
       </c>
-      <c r="C92">
+      <c r="C94">
         <f>15*12</f>
         <v>180</v>
       </c>
-      <c r="D92">
+      <c r="D94">
         <v>322.74</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="4"/>
+      <c r="E94">
+        <f t="shared" si="5"/>
         <v>1.79</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93">
-        <v>18</v>
-      </c>
-      <c r="D93">
-        <v>29</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="4"/>
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94">
-        <v>54</v>
-      </c>
-      <c r="D94">
-        <v>10</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="4"/>
-        <v>0.19</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C95">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95">
-        <v>11.9</v>
+        <v>29</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95" si="5">ROUND(D95/C95,2)</f>
-        <v>0.63</v>
+        <f t="shared" si="5"/>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96">
+        <v>54</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="C97">
-        <f>SUM(C79:C96)</f>
-        <v>1026</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <f>SUM(D79:D94)</f>
-        <v>1449.8700000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98">
-        <v>5</v>
+        <v>11.9</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97" si="6">ROUND(D97/C97,2)</f>
+        <v>0.63</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <f>SUM(C81:C98)</f>
+        <v>1026</v>
+      </c>
+      <c r="D99">
+        <f>SUM(D81:D96)</f>
+        <v>1449.8700000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
         <v>10</v>
       </c>
-      <c r="C99">
-        <f>C97/C98</f>
+      <c r="C101">
+        <f>C99/C100</f>
         <v>205.2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103">
-        <v>34</v>
-      </c>
-      <c r="D103">
-        <v>59</v>
-      </c>
-      <c r="E103">
-        <f t="shared" ref="E103:E104" si="6">ROUND(D103/C103,2)</f>
-        <v>1.74</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105">
+        <v>34</v>
+      </c>
+      <c r="D105">
+        <v>59</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105:E106" si="7">ROUND(D105/C105,2)</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
         <v>184</v>
       </c>
-      <c r="C104">
+      <c r="C106">
         <v>12</v>
       </c>
-      <c r="D104">
+      <c r="D106">
         <v>29</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="6"/>
+      <c r="E106">
+        <f t="shared" si="7"/>
         <v>2.42</v>
       </c>
     </row>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="215">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,17 +932,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>好奇银装50L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.21-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015.09.19-2015.10.03
 2015.09.01租房用
-2015.10.13-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好奇银装50L</t>
+2015.10.13-2015.10.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2248,13 +2248,13 @@
         <v>1.41</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="54" x14ac:dyDescent="0.15">
@@ -2544,7 +2544,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C69">
         <v>50</v>
@@ -2556,6 +2556,12 @@
         <f t="shared" si="3"/>
         <v>0.93</v>
       </c>
+      <c r="F69" t="s">
+        <v>213</v>
+      </c>
+      <c r="H69">
+        <v>50</v>
+      </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
@@ -2568,8 +2574,11 @@
         <v>20.9</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E71" si="4">ROUND(D70/C70,2)</f>
+        <f t="shared" ref="E70:E72" si="4">ROUND(D70/C70,2)</f>
         <v>0.87</v>
+      </c>
+      <c r="H70">
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
@@ -2586,6 +2595,27 @@
         <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
+      <c r="H71">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>47</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0.94</v>
+      </c>
+      <c r="H72">
+        <v>50</v>
+      </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
@@ -2593,7 +2623,7 @@
       </c>
       <c r="C74">
         <f>SUM(C42:C73)</f>
-        <v>2076</v>
+        <v>2126</v>
       </c>
       <c r="D74">
         <f>SUM(D42:D53)</f>
@@ -2601,7 +2631,7 @@
       </c>
       <c r="H74">
         <f>SUM(H42:H73)</f>
-        <v>323</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
@@ -2618,7 +2648,7 @@
       </c>
       <c r="C76">
         <f>C74/C75</f>
-        <v>415.2</v>
+        <v>425.2</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="218">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,6 +943,18 @@
     <t>2015.09.19-2015.10.03
 2015.09.01租房用
 2015.10.13-2015.10.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇银装15XL*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇银装18L*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇银装18L*9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1346,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="H1">
-        <f>D3+D18+D36+D74</f>
+        <f>D3+D18+D36+D78</f>
         <v>2751.8900000000003</v>
       </c>
     </row>
@@ -2304,7 +2316,7 @@
         <v>210</v>
       </c>
       <c r="H57">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -2473,7 +2485,7 @@
         <v>42</v>
       </c>
       <c r="H65">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
@@ -2574,7 +2586,7 @@
         <v>20.9</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E72" si="4">ROUND(D70/C70,2)</f>
+        <f t="shared" ref="E70:E76" si="4">ROUND(D70/C70,2)</f>
         <v>0.87</v>
       </c>
       <c r="H70">
@@ -2617,116 +2629,129 @@
         <v>50</v>
       </c>
     </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73">
+        <f>18*12</f>
+        <v>216</v>
+      </c>
+      <c r="D73">
+        <v>180.6</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>0.84</v>
+      </c>
+      <c r="H73">
+        <v>216</v>
+      </c>
+    </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74">
+        <f>18*12</f>
+        <v>216</v>
+      </c>
+      <c r="D74">
+        <v>181.6</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>0.84</v>
+      </c>
+      <c r="H74">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75">
+        <f>18*12</f>
+        <v>216</v>
+      </c>
+      <c r="D75">
+        <v>181.6</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>0.84</v>
+      </c>
+      <c r="H75">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76">
+        <f>18*9</f>
+        <v>162</v>
+      </c>
+      <c r="D76">
+        <f>181.6/4*3</f>
+        <v>136.19999999999999</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>0.84</v>
+      </c>
+      <c r="H76">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C74">
-        <f>SUM(C42:C73)</f>
-        <v>2126</v>
-      </c>
-      <c r="D74">
+      <c r="C78">
+        <f>SUM(C42:C77)</f>
+        <v>2936</v>
+      </c>
+      <c r="D78">
         <f>SUM(D42:D53)</f>
         <v>1313.1499999999999</v>
       </c>
-      <c r="H74">
-        <f>SUM(H42:H73)</f>
-        <v>431</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+      <c r="H78">
+        <f>SUM(H42:H77)</f>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C75">
+      <c r="C79">
         <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76">
-        <f>C74/C75</f>
-        <v>425.2</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D81">
-        <v>117.35</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ref="E81:E96" si="5">ROUND(D81/C81,2)</f>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D82">
-        <v>117</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="5"/>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D83">
-        <v>115</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="5"/>
-        <v>1.51</v>
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <f>C78/C79</f>
+        <v>587.20000000000005</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84">
-        <f>68+8</f>
-        <v>76</v>
-      </c>
-      <c r="D84">
-        <v>117</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="5"/>
-        <v>1.54</v>
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
@@ -2738,90 +2763,90 @@
         <v>76</v>
       </c>
       <c r="D85">
+        <v>117.35</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85:E100" si="5">ROUND(D85/C85,2)</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86">
+        <f>68+8</f>
+        <v>76</v>
+      </c>
+      <c r="D86">
+        <v>117</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87">
+        <f>68+8</f>
+        <v>76</v>
+      </c>
+      <c r="D87">
+        <v>115</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88">
+        <f>68+8</f>
+        <v>76</v>
+      </c>
+      <c r="D88">
+        <v>117</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89">
+        <f>68+8</f>
+        <v>76</v>
+      </c>
+      <c r="D89">
         <v>107</v>
       </c>
-      <c r="E85">
+      <c r="E89">
         <f t="shared" si="5"/>
         <v>1.41</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>122</v>
       </c>
-      <c r="C86">
+      <c r="C90">
         <v>18</v>
       </c>
-      <c r="D86">
+      <c r="D90">
         <v>26.8</v>
       </c>
-      <c r="E86">
+      <c r="E90">
         <f t="shared" si="5"/>
         <v>1.49</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87">
-        <v>18</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88">
-        <f>8*4</f>
-        <v>32</v>
-      </c>
-      <c r="D88">
-        <f>13*4</f>
-        <v>52</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="5"/>
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89">
-        <f>19*6</f>
-        <v>114</v>
-      </c>
-      <c r="D89">
-        <v>199</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90">
-        <f>4*19</f>
-        <v>76</v>
-      </c>
-      <c r="D90">
-        <v>100.49</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="5"/>
-        <v>1.32</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
@@ -2832,57 +2857,60 @@
         <v>18</v>
       </c>
       <c r="D91">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>1.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C92">
-        <v>80</v>
+        <f>8*4</f>
+        <v>32</v>
       </c>
       <c r="D92">
-        <v>90.77</v>
+        <f>13*4</f>
+        <v>52</v>
       </c>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>1.1299999999999999</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <f>19*6</f>
+        <v>114</v>
       </c>
       <c r="D93">
-        <v>22.22</v>
+        <v>199</v>
       </c>
       <c r="E93">
         <f t="shared" si="5"/>
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C94">
-        <f>15*12</f>
-        <v>180</v>
+        <f>4*19</f>
+        <v>76</v>
       </c>
       <c r="D94">
-        <v>322.74</v>
+        <v>100.49</v>
       </c>
       <c r="E94">
         <f t="shared" si="5"/>
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
@@ -2893,26 +2921,26 @@
         <v>18</v>
       </c>
       <c r="D95">
-        <v>29</v>
+        <v>23.5</v>
       </c>
       <c r="E95">
         <f t="shared" si="5"/>
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C96">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>90.77</v>
       </c>
       <c r="E96">
         <f t="shared" si="5"/>
-        <v>0.19</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
@@ -2923,74 +2951,150 @@
         <v>19</v>
       </c>
       <c r="D97">
-        <v>11.9</v>
+        <v>22.22</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97" si="6">ROUND(D97/C97,2)</f>
-        <v>0.63</v>
+        <f t="shared" si="5"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+      <c r="D98">
+        <v>322.74</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="C99">
-        <f>SUM(C81:C98)</f>
-        <v>1026</v>
+        <v>18</v>
       </c>
       <c r="D99">
-        <f>SUM(D81:D96)</f>
-        <v>1449.8700000000001</v>
+        <v>29</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>1.61</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="C101">
-        <f>C99/C100</f>
-        <v>205.2</v>
+        <v>19</v>
+      </c>
+      <c r="D101">
+        <v>11.9</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101" si="6">ROUND(D101/C101,2)</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102">
+        <f>15*3</f>
+        <v>45</v>
+      </c>
+      <c r="D102">
+        <v>45.4</v>
+      </c>
+      <c r="E102">
+        <v>45.4</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>161</v>
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <f>SUM(C85:C103)</f>
+        <v>1071</v>
+      </c>
+      <c r="D104">
+        <f>SUM(D85:D100)</f>
+        <v>1449.8700000000001</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>34</v>
-      </c>
-      <c r="D105">
-        <v>59</v>
-      </c>
-      <c r="E105">
-        <f t="shared" ref="E105:E106" si="7">ROUND(D105/C105,2)</f>
-        <v>1.74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <f>C104/C105</f>
+        <v>214.2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110">
+        <v>34</v>
+      </c>
+      <c r="D110">
+        <v>59</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110:E111" si="7">ROUND(D110/C110,2)</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
         <v>184</v>
       </c>
-      <c r="C106">
+      <c r="C111">
         <v>12</v>
       </c>
-      <c r="D106">
+      <c r="D111">
         <v>29</v>
       </c>
-      <c r="E106">
+      <c r="E111">
         <f t="shared" si="7"/>
         <v>2.42</v>
       </c>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="219">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,6 +955,11 @@
   </si>
   <si>
     <t>好奇银装18L*9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.10-2015.
+2015.11.14租房用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2686,7 +2691,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>217</v>
       </c>
@@ -2701,6 +2706,12 @@
       <c r="E76">
         <f t="shared" si="4"/>
         <v>0.84</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
       </c>
       <c r="H76">
         <v>162</v>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="221">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,10 +936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.10.21-2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.09.19-2015.10.03
 2015.09.01租房用
 2015.10.13-2015.10.21</t>
@@ -960,6 +956,18 @@
   <si>
     <t>2015.11.10-2015.
 2015.11.14租房用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.23-2015.11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.21-2015.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.21-2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2265,7 +2273,7 @@
         <v>1.41</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -2574,10 +2582,13 @@
         <v>0.93</v>
       </c>
       <c r="F69" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.15">
@@ -2594,6 +2605,9 @@
         <f t="shared" ref="E70:E76" si="4">ROUND(D70/C70,2)</f>
         <v>0.87</v>
       </c>
+      <c r="F70" t="s">
+        <v>220</v>
+      </c>
       <c r="H70">
         <v>24</v>
       </c>
@@ -2630,13 +2644,19 @@
         <f t="shared" si="4"/>
         <v>0.94</v>
       </c>
+      <c r="F72" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
       <c r="H72">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73">
         <f>18*12</f>
@@ -2655,7 +2675,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74">
         <f>18*12</f>
@@ -2674,7 +2694,7 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75">
         <f>18*12</f>
@@ -2693,7 +2713,7 @@
     </row>
     <row r="76" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76">
         <f>18*9</f>
@@ -2708,7 +2728,7 @@
         <v>0.84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G76">
         <v>7</v>
@@ -2731,7 +2751,7 @@
       </c>
       <c r="H78">
         <f>SUM(H42:H77)</f>
-        <v>1202</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
@@ -3032,7 +3052,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C102">
         <f>15*3</f>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="221">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -954,20 +954,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2015.10.23-2015.11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.21-2015.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.21-2015.12.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015.11.10-2015.
-2015.11.14租房用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.10.23-2015.11.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.10.21-2015.11.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.21-2015</t>
+2015.11.14租房用
+2015.12.03-2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1344,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2582,7 +2583,7 @@
         <v>0.93</v>
       </c>
       <c r="F69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
         <v>42</v>
@@ -2606,10 +2607,13 @@
         <v>0.87</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
@@ -2645,7 +2649,7 @@
         <v>0.94</v>
       </c>
       <c r="F72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G72" t="s">
         <v>42</v>
@@ -2711,7 +2715,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>216</v>
       </c>
@@ -2728,13 +2732,14 @@
         <v>0.84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>162</v>
+        <f>6*18</f>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
@@ -2751,7 +2756,7 @@
       </c>
       <c r="H78">
         <f>SUM(H42:H77)</f>
-        <v>1102</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="222">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,7 +968,11 @@
   <si>
     <t>2015.11.10-2015.
 2015.11.14租房用
-2015.12.03-2015</t>
+2015.12.03-2015.12.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.14-2015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,7 +1348,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2539,6 +2543,9 @@
       <c r="E67">
         <f t="shared" si="3"/>
         <v>0.71</v>
+      </c>
+      <c r="F67" t="s">
+        <v>221</v>
       </c>
       <c r="H67">
         <v>24</v>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,13 +966,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.11.10-2015.
+    <t>2015.11.10-2015.12.10
 2015.11.14租房用
 2015.12.03-2015.12.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.12.14-2015</t>
+    <t>2015.12.14-2015.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.22-2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.18-2016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2418,6 +2426,9 @@
         <f t="shared" si="2"/>
         <v>1.46</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H61">
         <v>24</v>
       </c>
@@ -2435,6 +2446,9 @@
       <c r="E62">
         <f t="shared" si="2"/>
         <v>0.93</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="H62">
         <v>24</v>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,15 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2*21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.08.16-2015.09.01
-2015.09.25-2015.10.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好奇银装50L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,7 +971,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.12.18-2016</t>
+    <t>2015.12.18-2015.12.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.08.16-2015.09.01
+2015.09.25-2015.10.03
+2015.12.29-2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2286,7 +2287,7 @@
         <v>1.41</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -2320,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>157</v>
       </c>
@@ -2336,13 +2337,13 @@
         <v>1.26</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G57" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H57">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -2427,7 +2428,7 @@
         <v>1.46</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H61">
         <v>24</v>
@@ -2448,10 +2449,13 @@
         <v>0.93</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
@@ -2559,7 +2563,7 @@
         <v>0.71</v>
       </c>
       <c r="F67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H67">
         <v>24</v>
@@ -2591,7 +2595,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C69">
         <v>50</v>
@@ -2604,7 +2608,7 @@
         <v>0.93</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
         <v>42</v>
@@ -2628,7 +2632,7 @@
         <v>0.87</v>
       </c>
       <c r="F70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G70" t="s">
         <v>42</v>
@@ -2657,7 +2661,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -2670,7 +2674,7 @@
         <v>0.94</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G72" t="s">
         <v>42</v>
@@ -2681,7 +2685,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C73">
         <f>18*12</f>
@@ -2700,7 +2704,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C74">
         <f>18*12</f>
@@ -2719,7 +2723,7 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C75">
         <f>18*12</f>
@@ -2738,7 +2742,7 @@
     </row>
     <row r="76" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C76">
         <f>18*9</f>
@@ -2753,7 +2757,7 @@
         <v>0.84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G76">
         <v>6</v>
@@ -2777,7 +2781,7 @@
       </c>
       <c r="H78">
         <f>SUM(H42:H77)</f>
-        <v>1024</v>
+        <v>988</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
@@ -3078,7 +3082,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C102">
         <f>15*3</f>

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="225">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,10 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.12.22-2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015.12.18-2015.12.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,6 +978,14 @@
   </si>
   <si>
     <t>1*21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.22-2016.01.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.01.05-2016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,7 +1361,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2337,10 +2341,10 @@
         <v>1.26</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G57" t="s">
         <v>222</v>
-      </c>
-      <c r="G57" t="s">
-        <v>223</v>
       </c>
       <c r="H57">
         <v>30</v>
@@ -2428,10 +2432,13 @@
         <v>1.46</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
@@ -2449,7 +2456,7 @@
         <v>0.93</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -2565,8 +2572,11 @@
       <c r="F67" t="s">
         <v>219</v>
       </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
       <c r="H67">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
@@ -2655,6 +2665,9 @@
         <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
+      <c r="F71" t="s">
+        <v>224</v>
+      </c>
       <c r="H71">
         <v>24</v>
       </c>
@@ -2781,7 +2794,7 @@
       </c>
       <c r="H78">
         <f>SUM(H42:H77)</f>
-        <v>988</v>
+        <v>940</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">

--- a/我的家/苏心妍日用.xlsx
+++ b/我的家/苏心妍日用.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="224">
   <si>
     <t>好奇铂金装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,11 +877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.06.19-2015.07.02
-2015.07.03-2015.07.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩余1*24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,21 +966,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2015.12.22-2016.01.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.01.05-2016.01.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2015.08.16-2015.09.01
 2015.09.25-2015.10.03
-2015.12.29-2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1*21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.12.22-2016.01.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.01.05-2016</t>
+2015.12.29-2016.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.06.19-2015.07.02
+2015.07.03-2015.07.25
+2016.01.25-2016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2063,10 +2060,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" t="s">
         <v>207</v>
-      </c>
-      <c r="G45" t="s">
-        <v>208</v>
       </c>
       <c r="H45">
         <f>3*23</f>
@@ -2265,13 +2262,13 @@
         <v>1.41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
         <v>42</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -2291,7 +2288,7 @@
         <v>1.41</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -2316,7 +2313,7 @@
         <v>1.26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
         <v>42</v>
@@ -2341,16 +2338,16 @@
         <v>1.26</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G57" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>159</v>
       </c>
@@ -2366,10 +2363,10 @@
         <v>1.26</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" t="s">
         <v>201</v>
-      </c>
-      <c r="G58" t="s">
-        <v>202</v>
       </c>
       <c r="H58">
         <v>24</v>
@@ -2432,7 +2429,7 @@
         <v>1.46</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
@@ -2456,7 +2453,7 @@
         <v>0.93</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -2480,7 +2477,7 @@
         <v>0.41</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -2546,7 +2543,7 @@
         <v>1.26</v>
       </c>
       <c r="F66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -2570,7 +2567,7 @@
         <v>0.71</v>
       </c>
       <c r="F67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -2594,7 +2591,7 @@
         <v>1.36</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G68" t="s">
         <v>42</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69">
         <v>50</v>
@@ -2618,7 +2615,7 @@
         <v>0.93</v>
       </c>
       <c r="F69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G69" t="s">
         <v>42</v>
@@ -2642,7 +2639,7 @@
         <v>0.87</v>
       </c>
       <c r="F70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G70" t="s">
         <v>42</v>
@@ -2666,15 +2663,18 @@
         <v>0.88</v>
       </c>
       <c r="F71" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -2687,7 +2687,7 @@
         <v>0.94</v>
       </c>
       <c r="F72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G72" t="s">
         <v>42</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73">
         <f>18*12</f>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C74">
         <f>18*12</f>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75">
         <f>18*12</f>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="76" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76">
         <f>18*9</f>
@@ -2770,7 +2770,7 @@
         <v>0.84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G76">
         <v>6</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="H78">
         <f>SUM(H42:H77)</f>
-        <v>940</v>
+        <v>871</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
@@ -3095,7 +3095,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C102">
         <f>15*3</f>
